--- a/Ships/KSP RO Craft Tracker.xlsx
+++ b/Ships/KSP RO Craft Tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E796BBE1-3399-44A7-974F-02D112BAD453}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93B0F44-237B-47FB-9C97-CF3863125D53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assemblies" sheetId="6" r:id="rId1"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2096C-6E76-4F55-981F-72E3965D994D}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="11"/>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="11"/>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="11"/>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="11"/>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="11"/>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="11"/>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="11"/>
@@ -2013,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA80824-4A4A-4996-B1C1-EA53488D22DF}">
   <dimension ref="A1:F311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ships/KSP RO Craft Tracker.xlsx
+++ b/Ships/KSP RO Craft Tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93B0F44-237B-47FB-9C97-CF3863125D53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02FF8EF-58FF-4123-9FBC-BA379BE195C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assemblies" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="227">
   <si>
     <t>Axiom</t>
   </si>
@@ -809,6 +809,39 @@
   </si>
   <si>
     <t>290km</t>
+  </si>
+  <si>
+    <t>US Locations and biomes</t>
+  </si>
+  <si>
+    <t>Cape</t>
+  </si>
+  <si>
+    <t>Wallops</t>
+  </si>
+  <si>
+    <t>Vandenburg</t>
+  </si>
+  <si>
+    <t>Woomera</t>
+  </si>
+  <si>
+    <t>Shores</t>
+  </si>
+  <si>
+    <t>Grasslands</t>
+  </si>
+  <si>
+    <t>forest to west, water the east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest to west </t>
+  </si>
+  <si>
+    <t>desert to north/north east several hundred kms.  Desert and tropics 1000km to the north east.</t>
+  </si>
+  <si>
+    <t>water -slight pointing east with Sprint, desert and mountians to the south west but long range</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2096C-6E76-4F55-981F-72E3965D994D}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA80824-4A4A-4996-B1C1-EA53488D22DF}">
   <dimension ref="A1:F311"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2195,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3525,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AB7B8E-4A1A-4464-B6D0-CC6A66FFAE52}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,15 +3570,18 @@
     <col min="2" max="3" width="46.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3555,8 +3591,18 @@
       <c r="C2" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3566,8 +3612,17 @@
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3577,8 +3632,17 @@
       <c r="C4" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3588,8 +3652,17 @@
       <c r="C5" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3597,7 +3670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3605,7 +3678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3613,7 +3686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3621,7 +3694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3629,7 +3702,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3637,7 +3710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3645,7 +3718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>

--- a/Ships/KSP RO Craft Tracker.xlsx
+++ b/Ships/KSP RO Craft Tracker.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02FF8EF-58FF-4123-9FBC-BA379BE195C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B2DEA8-8D3A-456B-A7FF-3CC958E1BAC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Assemblies" sheetId="6" r:id="rId1"/>
-    <sheet name="Craft" sheetId="4" r:id="rId2"/>
-    <sheet name="Tips" sheetId="5" r:id="rId3"/>
+    <sheet name="Rendevous" sheetId="7" r:id="rId1"/>
+    <sheet name="Assemblies" sheetId="6" r:id="rId2"/>
+    <sheet name="Craft" sheetId="4" r:id="rId3"/>
+    <sheet name="Tips" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="218">
   <si>
     <t>Axiom</t>
   </si>
@@ -195,18 +196,12 @@
     <t>Starting</t>
   </si>
   <si>
-    <t>Flight, Post War Rocketry/Early Rocketry</t>
-  </si>
-  <si>
     <t>Post War Rocketry</t>
   </si>
   <si>
     <t>Flight, Post War Rocketry</t>
   </si>
   <si>
-    <t>Flight, Post War Rocketry/Early Rocketry, Early Materials Science</t>
-  </si>
-  <si>
     <t>Satellite Era Materials Science</t>
   </si>
   <si>
@@ -246,31 +241,9 @@
     <t>Post War Rocketry, Avionics Prototype</t>
   </si>
   <si>
-    <t xml:space="preserve">Tank 3 Baloon LR79
-</t>
-  </si>
-  <si>
     <t>1958 Orbital Rocketry, Early Avionics and Probes, Sattelite Era Materials Science, Luna Range Comms, Primitive Solar,</t>
   </si>
   <si>
-    <t>Nova-B-Luna Orbit</t>
-  </si>
-  <si>
-    <t>A "Heavy" version of the Luna with LR89 side boosters which can put a probe into kuna orbit</t>
-  </si>
-  <si>
-    <t>1958 Orbital Rocketry,Basic Avionics and Probes, Sattelite Era Materials Science, Luna Range Comms, Primitive Solar,</t>
-  </si>
-  <si>
-    <t>Nova-2-B-Inter</t>
-  </si>
-  <si>
-    <t>A "Heavy" version of the Luna with LR89 side boosters and a LR105 cores which can send a probe to venus or mars</t>
-  </si>
-  <si>
-    <t>1959 Orbital Rocketry,Basic Avionics and Probes, Sattelite Era Materials Science, Interplanet Comms, Primitive Solar,Early flight control</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -278,35 +251,6 @@
   </si>
   <si>
     <t>Outreach</t>
-  </si>
-  <si>
-    <t>Nova-2-B-Lander</t>
-  </si>
-  <si>
-    <t>Can land on Moon with highly efficient transfer, PE lower (maximise oberth) and landing (CAB from 30KM orbit) on the highlands.</t>
-  </si>
-  <si>
-    <t>Used to place the first geostationary sat.</t>
-  </si>
-  <si>
-    <t>Nova-Return</t>
-  </si>
-  <si>
-    <t>Nova-Crew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to return science and get achievement
-</t>
-  </si>
-  <si>
-    <t>1958 Orbital Rocketry, Early Avionics and Probes, Sattelite Era Materials Science, Luna Range Comms, Primitive Solar, Heat Shields</t>
-  </si>
-  <si>
-    <t>1959 Orbital Rocketry, Early Avionics and Probes, Sattelite Era Materials Science, Luna Range Comms, Primitive Solar, Heat Shields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send aircraft cockpit up with heatsheilding
-</t>
   </si>
   <si>
     <t>Sounding Rockets -Olympic:</t>
@@ -452,16 +396,6 @@
 2070 units - 2.4Mm</t>
   </si>
   <si>
-    <t>A Javelin booster with a Sprint Second Stage
-450 units - 810km
-600 units - 795km
-800 units - XXXkm
-950 units -630km
-1000 units -600km
-1200 units - 530km
-2400 units - 380km</t>
-  </si>
-  <si>
     <t>1956 Orbital Rocketry, Early Avionics and Probes, Sattelite Era Materials Science, Luna Range Comms, Primitive Solar,</t>
   </si>
   <si>
@@ -472,9 +406,6 @@
   </si>
   <si>
     <t>Second generation booster using the LR105 and LR89 based on the actual Atlas rocket</t>
-  </si>
-  <si>
-    <t>Zu - Outreach</t>
   </si>
   <si>
     <t xml:space="preserve">Good for obits with PE upto 370km
@@ -842,6 +773,45 @@
   </si>
   <si>
     <t>water -slight pointing east with Sprint, desert and mountians to the south west but long range</t>
+  </si>
+  <si>
+    <t>A Javelin booster with a Sprint Second Stage
+450 units - 810km
+600 units - 795km
+900 units -650km
+1200 units - 530km
+2400 units - 380km</t>
+  </si>
+  <si>
+    <t>Early Rocketry</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Hammer 2 - Outreach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tank 3 Baloon LR79 with second gen engine and lighter avionics and stretched tank.
+</t>
+  </si>
+  <si>
+    <t>A return photography mission</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Moon Phase angle at launch</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -948,21 +918,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -974,15 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1338,11 +1298,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB3137E-0BFF-4ECF-9127-613D74551A80}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>259</v>
+      </c>
+      <c r="B2">
+        <v>1959</v>
+      </c>
+      <c r="C2">
+        <v>27.69</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>259</v>
+      </c>
+      <c r="B3">
+        <v>1959</v>
+      </c>
+      <c r="C3">
+        <v>27.69</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2096C-6E76-4F55-981F-72E3965D994D}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,685 +1386,689 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>210</v>
+      <c r="A1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="22"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" s="17" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="A4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>90</v>
+      <c r="A6" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="A7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" s="17" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" s="17" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>77</v>
+      <c r="A62" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>163</v>
+      <c r="A63" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>164</v>
+      <c r="A64" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2042,12 +2077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA80824-4A4A-4996-B1C1-EA53488D22DF}">
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C49" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,25 +2101,25 @@
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>51</v>
@@ -2092,13 +2127,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>51</v>
@@ -2106,7 +2141,7 @@
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -2120,24 +2155,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -2146,47 +2181,47 @@
         <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
@@ -2200,35 +2235,35 @@
     </row>
     <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
@@ -2237,12 +2272,12 @@
         <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
@@ -2251,562 +2286,484 @@
         <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="D21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="D29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="C32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="C35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="C36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="C37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
+      <c r="B44" s="4"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
+      <c r="B45" s="4"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
@@ -3531,24 +3488,6 @@
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" s="3"/>
-    </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E306" s="3"/>
-    </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E307" s="3"/>
-    </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E308" s="3"/>
-    </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E309" s="3"/>
-    </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E310" s="3"/>
-    </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E311" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3556,11 +3495,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AB7B8E-4A1A-4464-B6D0-CC6A66FFAE52}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3578,7 +3517,7 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3586,19 +3525,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -3607,19 +3546,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -3630,16 +3569,16 @@
         <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -3647,19 +3586,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3691,7 +3630,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3699,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3707,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3723,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
